--- a/20220426_algo_v2_10/algo_results/perf_result/hybrid_cf.xlsx
+++ b/20220426_algo_v2_10/algo_results/perf_result/hybrid_cf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA4"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,160 +600,160 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01419812842852533</v>
+        <v>0.01380925462327384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01308985132514544</v>
+        <v>0.01446566436407964</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01360103626943005</v>
+        <v>0.01407997425376136</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01344280769540369</v>
+        <v>0.01483870967741936</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01358054810116288</v>
+        <v>0.01432710882163554</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01498187676198147</v>
+        <v>0.01460030652577236</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01449971961868141</v>
+        <v>0.01285553591515346</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01433864991139037</v>
+        <v>0.01423027166882277</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01268245991864082</v>
+        <v>0.01411421155094095</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01448921448921449</v>
+        <v>0.0128174123337364</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01486928104575163</v>
+        <v>0.01453581753935111</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01391346308508927</v>
+        <v>0.01360160965794769</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01520759575152881</v>
+        <v>0.01409804549823774</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01485347250100361</v>
+        <v>0.01536085825747724</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01398431816344677</v>
+        <v>0.01417525773195876</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01315895049346064</v>
+        <v>0.01326646173758292</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01372074253430186</v>
+        <v>0.01461105215900743</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0143252482500407</v>
+        <v>0.01343648208469055</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0147544948802709</v>
+        <v>0.01345038659793815</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01426140507252249</v>
+        <v>0.01389893146943038</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0143217511595736</v>
+        <v>0.01438025982514911</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01331934129803035</v>
+        <v>0.01419292759201347</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01521774324105553</v>
+        <v>0.01388776090311053</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01336320716972073</v>
+        <v>0.01355739568111706</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01380925462327384</v>
+        <v>0.01374929645412881</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01445978878960195</v>
+        <v>0.01364190012180268</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01279145077720207</v>
+        <v>0.01445434834979523</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01356151113981272</v>
+        <v>0.012524557956778</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01312697512357183</v>
+        <v>0.01305714515999033</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0148530836293187</v>
+        <v>0.01422417296594327</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01351571405308582</v>
+        <v>0.01440945519307051</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01245906876447568</v>
+        <v>0.01382041542067405</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01337846550612508</v>
+        <v>0.01441614608361365</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01273833671399594</v>
+        <v>0.01414563574987944</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01309831824062096</v>
+        <v>0.01342551652062063</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0132660535525352</v>
+        <v>0.0132013201320132</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.01363599903745889</v>
+        <v>0.01271082864825226</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01390348395440951</v>
+        <v>0.01425793907971484</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.01276252019386107</v>
+        <v>0.01343570057581574</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.01375040205853972</v>
+        <v>0.01398884127112477</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.01495674670547336</v>
+        <v>0.01347840207859695</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01420203803257643</v>
+        <v>0.01426844014510278</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01447272135946012</v>
+        <v>0.01268994503718073</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.01475595913734393</v>
+        <v>0.01323861801743623</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0144226895495931</v>
+        <v>0.01422943966556797</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01412911084043849</v>
+        <v>0.01362309438858255</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.01513795067958004</v>
+        <v>0.01407877604166667</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01375470771246111</v>
+        <v>0.01278918214402085</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01377006436893995</v>
+        <v>0.01395084759510098</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.01347488770926909</v>
+        <v>0.01309262421728877</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.01392725218836795</v>
+        <v>0.01382988570966739</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0007236212287661803</v>
+        <v>0.0006177913744012809</v>
       </c>
     </row>
     <row r="3">
@@ -761,160 +761,160 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.284789644012945</v>
+        <v>0.28125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2741116751269035</v>
+        <v>0.2908496732026144</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2722852512155591</v>
+        <v>0.2864157119476268</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2889273356401384</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2899305555555556</v>
+        <v>0.2908496732026144</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3014586709886548</v>
+        <v>0.2909967845659164</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2981878088962109</v>
+        <v>0.264026402640264</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2961730449251248</v>
+        <v>0.2953020134228188</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2632450331125828</v>
+        <v>0.2949152542372881</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2852564102564102</v>
+        <v>0.2602291325695581</v>
       </c>
       <c r="L3" t="n">
-        <v>0.299835255354201</v>
+        <v>0.2914653784219002</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2868988391376451</v>
+        <v>0.2752442996742671</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3068181818181818</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3088480801335559</v>
+        <v>0.2976377952755905</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2808441558441558</v>
+        <v>0.2899505766062603</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2706270627062706</v>
+        <v>0.2822719449225473</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2728731942215089</v>
+        <v>0.2934426229508197</v>
       </c>
       <c r="S3" t="n">
+        <v>0.2731788079470199</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2715447154471545</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2826797385620915</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2866449511400652</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.3020477815699659</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2792642140468227</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2762520193861066</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2736156351791531</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2884615384615384</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2562814070351759</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2709030100334448</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2859477124183006</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2918032786885246</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.301056338028169</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2936378466557912</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2866449511400652</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2715447154471545</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2719734660033167</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2557377049180328</v>
+      </c>
+      <c r="AM3" t="n">
         <v>0.2938230383973289</v>
       </c>
-      <c r="T3" t="n">
-        <v>0.3091216216216216</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.2993197278911565</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.2909090909090909</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.2763819095477387</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.3027375201288245</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.2811447811447811</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.2873949579831933</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.2996632996632997</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.257328990228013</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.2745098039215687</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.2852112676056338</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.2920634920634921</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.2785234899328859</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.2557377049180328</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.2725779967159278</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.2621035058430718</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.2677685950413223</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.2744107744107744</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.2809917355371901</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.2787682333873582</v>
-      </c>
       <c r="AN3" t="n">
-        <v>0.2691652470187393</v>
+        <v>0.2740619902120718</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2898305084745763</v>
+        <v>0.2922297297297297</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.3062913907284768</v>
+        <v>0.2716857610474632</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2882736156351792</v>
+        <v>0.279179810725552</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2918032786885246</v>
+        <v>0.2612312811980033</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.3063973063973064</v>
+        <v>0.2662337662337662</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2939244663382594</v>
+        <v>0.2984822934232715</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2801932367149759</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3054187192118227</v>
+        <v>0.2817589576547231</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.2736156351791531</v>
+        <v>0.2599337748344371</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2779605263157895</v>
+        <v>0.284297520661157</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.2578125</v>
+        <v>0.2669983416252073</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.2848457633308143</v>
+        <v>0.281803167841809</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.0142632218202183</v>
+        <v>0.01236112433725989</v>
       </c>
     </row>
     <row r="4">
@@ -922,160 +922,321 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02704779468264945</v>
+        <v>0.02632591794319144</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02498650420297679</v>
+        <v>0.02756057908183015</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02590793430488087</v>
+        <v>0.02684049079754601</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02569033151296054</v>
+        <v>0.02829028290282903</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0259457779849297</v>
+        <v>0.02730899048787971</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0285451197053407</v>
+        <v>0.02780551501651432</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02765469824293353</v>
+        <v>0.02451731535396874</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02735305416826738</v>
+        <v>0.0271521135452021</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0241990716079446</v>
+        <v>0.02693915466790525</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02757765899759857</v>
+        <v>0.02443146896127843</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02833346306530707</v>
+        <v>0.02769066013921823</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02653984812456854</v>
+        <v>0.0259222333000997</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02897884084636615</v>
+        <v>0.02688664833486099</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02834380266584955</v>
+        <v>0.02921400417342917</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02664202664202664</v>
+        <v>0.02702910235736773</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02509755910934272</v>
+        <v>0.0253418836436684</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02612771843541074</v>
+        <v>0.02783609361635954</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0273185875048506</v>
+        <v>0.02561316361378454</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02816467872258561</v>
+        <v>0.0256311871690584</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02722561683038131</v>
+        <v>0.02649513745309748</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02729951915619668</v>
+        <v>0.027386602349646</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02541393916056989</v>
+        <v>0.02711189400321667</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02897880539499037</v>
+        <v>0.02648493765972276</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02551371171033534</v>
+        <v>0.02585939919479715</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02635228848821082</v>
+        <v>0.02619485294117647</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02758834469931804</v>
+        <v>0.02598808879263671</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02437143297855931</v>
+        <v>0.02752924982794219</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.02584615384615385</v>
+        <v>0.0238819948489815</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.02509876830118522</v>
+        <v>0.02491349480968858</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02826855123674912</v>
+        <v>0.02710027100271003</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02578040068333592</v>
+        <v>0.0274627786777752</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.02376056659812657</v>
+        <v>0.02642763310408778</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.02550510870400246</v>
+        <v>0.0274830139705321</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.02429588362735995</v>
+        <v>0.02696078431372549</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0249749479688584</v>
+        <v>0.02558602727133446</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.02530859405325674</v>
+        <v>0.02518040841394135</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.02600979192166463</v>
+        <v>0.02421796165489405</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.02648598706498306</v>
+        <v>0.0271961678127173</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.02436955348191563</v>
+        <v>0.02561561332621788</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0262551819438047</v>
+        <v>0.02669959101782545</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.02852077391505434</v>
+        <v>0.02568267966272143</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.02707042899747649</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.02757765899759858</v>
+        <v>0.0242041162414245</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.02815594059405941</v>
+        <v>0.02522300830513688</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.02749615975422427</v>
+        <v>0.02716390423572744</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.02690166975881262</v>
+        <v>0.02597804236895005</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.02884615384615384</v>
+        <v>0.02681754766702836</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02619270346117867</v>
+        <v>0.02437888198757764</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02624019874233367</v>
+        <v>0.02659656718725839</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.02561117578579744</v>
+        <v>0.02496124031007752</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.02655540964458874</v>
+        <v>0.02636536033571057</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.001371273105773843</v>
+        <v>0.001171080329096825</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.07194412107101281</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.07194412107101289</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>8.326672684688674e-17</v>
       </c>
     </row>
   </sheetData>

--- a/20220426_algo_v2_10/algo_results/perf_result/hybrid_cf.xlsx
+++ b/20220426_algo_v2_10/algo_results/perf_result/hybrid_cf.xlsx
@@ -600,160 +600,160 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01380925462327384</v>
+        <v>0.01297332360334063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01446566436407964</v>
+        <v>0.01508271164450211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01407997425376136</v>
+        <v>0.01349180854481208</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01483870967741936</v>
+        <v>0.01378974691758598</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01432710882163554</v>
+        <v>0.01546853374582757</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01460030652577236</v>
+        <v>0.01357246728065923</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01285553591515346</v>
+        <v>0.01337982484592929</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01423027166882277</v>
+        <v>0.01368088723387031</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01411421155094095</v>
+        <v>0.0130048465266559</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0128174123337364</v>
+        <v>0.01418897129958078</v>
       </c>
       <c r="L2" t="n">
         <v>0.01453581753935111</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01360160965794769</v>
+        <v>0.01422797089733225</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01409804549823774</v>
+        <v>0.01384615384615385</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01536085825747724</v>
+        <v>0.01295756397797214</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01417525773195876</v>
+        <v>0.01392</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01326646173758292</v>
+        <v>0.01376811594202899</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01461105215900743</v>
+        <v>0.01250710631040364</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01343648208469055</v>
+        <v>0.01257198475139914</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01345038659793815</v>
+        <v>0.01325895383620341</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01389893146943038</v>
+        <v>0.01322473994032739</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01438025982514911</v>
+        <v>0.01345580533397792</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01419292759201347</v>
+        <v>0.01307241960060951</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01388776090311053</v>
+        <v>0.01499032882011605</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01355739568111706</v>
+        <v>0.01436990393154113</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01374929645412881</v>
+        <v>0.01511826383808827</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01364190012180268</v>
+        <v>0.01425499721271004</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01445434834979523</v>
+        <v>0.01456623209399646</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.012524557956778</v>
+        <v>0.01397189468583428</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01305714515999033</v>
+        <v>0.01417233560090703</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01422417296594327</v>
+        <v>0.01401982112642011</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01440945519307051</v>
+        <v>0.01285223916340704</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01382041542067405</v>
+        <v>0.01319176319176319</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01441614608361365</v>
+        <v>0.01392168037124481</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01414563574987944</v>
+        <v>0.01384839650145773</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01342551652062063</v>
+        <v>0.0149640055002831</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0132013201320132</v>
+        <v>0.01311027105284324</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.01271082864825226</v>
+        <v>0.01402886398451987</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01425793907971484</v>
+        <v>0.01447410743004181</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.01343570057581574</v>
+        <v>0.01398151868220169</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.01398884127112477</v>
+        <v>0.01323745710083347</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.01347840207859695</v>
+        <v>0.01391871470611628</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01426844014510278</v>
+        <v>0.01277877258668403</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01268994503718073</v>
+        <v>0.01354620222544751</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.01323861801743623</v>
+        <v>0.01301727601446364</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01422943966556797</v>
+        <v>0.01247165532879819</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01362309438858255</v>
+        <v>0.01445274439753167</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.01407877604166667</v>
+        <v>0.01457725947521866</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01278918214402085</v>
+        <v>0.01417639951671365</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01395084759510098</v>
+        <v>0.01259241205621903</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.01309262421728877</v>
+        <v>0.01345146999597261</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.01382988570966739</v>
+        <v>0.01376073480419796</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0006177913744012809</v>
+        <v>0.0007317412049066707</v>
       </c>
     </row>
     <row r="3">
@@ -761,160 +761,160 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28125</v>
+        <v>0.272108843537415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2908496732026144</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2864157119476268</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3026315789473684</v>
+        <v>0.2891156462585034</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2908496732026144</v>
+        <v>0.3059581320450886</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2909967845659164</v>
+        <v>0.2828282828282828</v>
       </c>
       <c r="H3" t="n">
-        <v>0.264026402640264</v>
+        <v>0.2665589660743134</v>
       </c>
       <c r="I3" t="n">
+        <v>0.2793388429752066</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2771084337349398</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.2953020134228188</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2949152542372881</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.2602291325695581</v>
       </c>
       <c r="L3" t="n">
         <v>0.2914653784219002</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2752442996742671</v>
+        <v>0.2993197278911565</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.283112582781457</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2976377952755905</v>
+        <v>0.2576489533011272</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2899505766062603</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2822719449225473</v>
+        <v>0.2817133443163097</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2934426229508197</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2731788079470199</v>
+        <v>0.2566225165562914</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2715447154471545</v>
+        <v>0.2701812191103789</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2826797385620915</v>
+        <v>0.2789115646258503</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2866449511400652</v>
+        <v>0.2742200328407225</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3020477815699659</v>
+        <v>0.2810344827586207</v>
       </c>
       <c r="X3" t="n">
-        <v>0.285</v>
+        <v>0.3079470198675497</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2792642140468227</v>
+        <v>0.2899022801302932</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2762520193861066</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2736156351791531</v>
+        <v>0.2905844155844156</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2884615384615384</v>
+        <v>0.3083475298126065</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2562814070351759</v>
+        <v>0.2836065573770492</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2709030100334448</v>
+        <v>0.2887788778877888</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.2859477124183006</v>
+        <v>0.2890365448504983</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.2918032786885246</v>
+        <v>0.2648026315789473</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.301056338028169</v>
+        <v>0.277027027027027</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.2936378466557912</v>
+        <v>0.2785016286644951</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.2866449511400652</v>
+        <v>0.280327868852459</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.2715447154471545</v>
+        <v>0.2988691437802908</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2719734660033167</v>
+        <v>0.2583201267828843</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.2557377049180328</v>
+        <v>0.2909698996655518</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.2938230383973289</v>
+        <v>0.2907915993537964</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.2740619902120718</v>
+        <v>0.2810985460420032</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2922297297297297</v>
+        <v>0.2718120805369127</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.2716857610474632</v>
+        <v>0.2966101694915254</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.279179810725552</v>
+        <v>0.2612312811980033</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2612312811980033</v>
+        <v>0.28</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.2662337662337662</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2984822934232715</v>
+        <v>0.2601351351351351</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2790697674418605</v>
+        <v>0.2894308943089431</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.2817589576547231</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.2599337748344371</v>
+        <v>0.2811501597444089</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.284297520661157</v>
+        <v>0.2587646076794658</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.2669983416252073</v>
+        <v>0.2840136054421769</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.281803167841809</v>
+        <v>0.2822563641648795</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01236112433725989</v>
+        <v>0.01382624494248351</v>
       </c>
     </row>
     <row r="4">
@@ -922,160 +922,160 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02632591794319144</v>
+        <v>0.02476588499342156</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02756057908183015</v>
+        <v>0.02873918417799753</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02684049079754601</v>
+        <v>0.0257945647167204</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02829028290282903</v>
+        <v>0.02632393930009291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02730899048787971</v>
+        <v>0.02944823310601364</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02780551501651432</v>
+        <v>0.02590194264569843</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02451731535396874</v>
+        <v>0.02548065786425759</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0271521135452021</v>
+        <v>0.02608427226423831</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02693915466790525</v>
+        <v>0.02484376205539696</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02443146896127843</v>
+        <v>0.02707692307692307</v>
       </c>
       <c r="L4" t="n">
         <v>0.02769066013921823</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0259222333000997</v>
+        <v>0.02716468590831918</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02688664833486099</v>
+        <v>0.02640111162575266</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02921400417342917</v>
+        <v>0.02467422314750559</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02702910235736773</v>
+        <v>0.02657705819459294</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0253418836436684</v>
+        <v>0.02625316650034544</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02783609361635954</v>
+        <v>0.02386302006663051</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02561316361378454</v>
+        <v>0.02396968994046238</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0256311871690584</v>
+        <v>0.02527743526510481</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02649513745309748</v>
+        <v>0.02525213642312726</v>
       </c>
       <c r="V4" t="n">
-        <v>0.027386602349646</v>
+        <v>0.02565284178187404</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02711189400321667</v>
+        <v>0.02498275729940992</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02648493765972276</v>
+        <v>0.02858899477405472</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02585939919479715</v>
+        <v>0.02738250903776632</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02619485294117647</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02598808879263671</v>
+        <v>0.02717680103241478</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02752924982794219</v>
+        <v>0.0278183355106432</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0238819948489815</v>
+        <v>0.02663177339901478</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.02491349480968858</v>
+        <v>0.02701868148834337</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02710027100271003</v>
+        <v>0.02674248828094982</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0274627786777752</v>
+        <v>0.02451465550057099</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.02642763310408778</v>
+        <v>0.02518427518427519</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0274830139705321</v>
+        <v>0.02651779483600837</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.02696078431372549</v>
+        <v>0.02639296187683284</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.02558602727133446</v>
+        <v>0.0285010013865352</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.02518040841394135</v>
+        <v>0.02495407225964483</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.02421796165489405</v>
+        <v>0.02676717175601877</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0271961678127173</v>
+        <v>0.02757564151666029</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.02561561332621788</v>
+        <v>0.02663808940600122</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.02669959101782545</v>
+        <v>0.02524544179523142</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.02568267966272143</v>
+        <v>0.02658968320291727</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.02714932126696833</v>
+        <v>0.02436563979203849</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0242041162414245</v>
+        <v>0.02584217812644209</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.02522300830513688</v>
+        <v>0.02483139178418148</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.02716390423572744</v>
+        <v>0.02380216383307574</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.02597804236895005</v>
+        <v>0.02753074008197355</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.02681754766702836</v>
+        <v>0.0277713492247165</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02437888198757764</v>
+        <v>0.02699179510773713</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02659656718725839</v>
+        <v>0.02401611403780601</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.02496124031007752</v>
+        <v>0.02568638006613858</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.02636536033571057</v>
+        <v>0.02624146506416725</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.001171080329096825</v>
+        <v>0.001384356003686979</v>
       </c>
     </row>
     <row r="5">
